--- a/back/uploads/extracted_tarifs.xlsx
+++ b/back/uploads/extracted_tarifs.xlsx
@@ -25,7 +25,7 @@
     <t>6C</t>
   </si>
   <si>
-    <t>6M</t>
+    <t>8R</t>
   </si>
   <si>
     <t>6H</t>
